--- a/data_list.xlsx
+++ b/data_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,29 +513,333 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>일본</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>미래에셋</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>555-666-777</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>테슬라</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>미국</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>키움증권</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>987-654-321</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>애플</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>75555</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>64444</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>45632</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>대한민국</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123-456-789</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>005930</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>대한민국</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123-456-789</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>대한민국</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>123-456-789</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>미국</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>123-456-789</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1,000,000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
